--- a/data/trans_orig/P1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03DEA23-EA1B-4F74-B22E-4ED72E9FCCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E56B07-229C-4B69-8099-2A5D0B46D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EABFFF6-F4BC-453C-A8CF-4C07ABFD1571}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C855861-A167-462F-8DE7-4AF80171CE17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1408 +77,1462 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>91,13%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>92,34%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>93,51%</t>
+    <t>90,27%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>9,82%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>90,18%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E78DD0B-013B-4B32-91FB-EBF278C392EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CF3E1-3FBA-4ADD-8B4C-022F2E997FA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2327,10 +2381,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2339,13 +2393,13 @@
         <v>46556</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -2354,13 +2408,13 @@
         <v>72977</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2429,13 @@
         <v>612247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -2390,13 +2444,13 @@
         <v>643188</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1203</v>
@@ -2405,13 +2459,13 @@
         <v>1255435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2479,13 +2533,13 @@
         <v>32423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -2494,13 +2548,13 @@
         <v>58070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -2509,13 +2563,13 @@
         <v>90493</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2584,13 @@
         <v>486724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -2545,13 +2599,13 @@
         <v>457572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>899</v>
@@ -2560,13 +2614,13 @@
         <v>944296</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2634,13 +2688,13 @@
         <v>32190</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -2649,13 +2703,13 @@
         <v>44571</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2664,13 +2718,13 @@
         <v>76761</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2739,13 @@
         <v>354520</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>351</v>
@@ -2700,13 +2754,13 @@
         <v>359415</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>709</v>
@@ -2715,13 +2769,13 @@
         <v>713935</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2831,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2789,13 +2843,13 @@
         <v>70266</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -2804,13 +2858,13 @@
         <v>110924</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -2819,13 +2873,13 @@
         <v>181190</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2894,13 @@
         <v>432200</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>555</v>
@@ -2855,13 +2909,13 @@
         <v>565918</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1004</v>
@@ -2870,13 +2924,13 @@
         <v>998118</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2998,13 @@
         <v>198239</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>308</v>
@@ -2959,28 +3013,28 @@
         <v>318275</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>504</v>
       </c>
       <c r="N22" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3049,13 @@
         <v>3078305</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2989</v>
@@ -3010,13 +3064,13 @@
         <v>3060923</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6007</v>
@@ -3025,13 +3079,13 @@
         <v>6139227</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3127,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3087,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE865B0-F8DD-4F09-B8BA-8995F10EDD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5CC236-6BDA-4F32-B579-C24B20BAE856}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3126,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3233,13 +3287,13 @@
         <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3248,13 +3302,13 @@
         <v>19528</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3263,13 +3317,13 @@
         <v>28725</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3338,13 @@
         <v>444949</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3299,13 +3353,13 @@
         <v>410702</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3314,13 +3368,13 @@
         <v>855651</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3442,13 @@
         <v>20235</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3403,13 +3457,13 @@
         <v>33271</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3418,13 +3472,13 @@
         <v>53507</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3493,13 @@
         <v>666852</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3454,7 +3508,7 @@
         <v>576984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>173</v>
@@ -3573,13 +3627,13 @@
         <v>119441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3648,13 @@
         <v>643662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3609,13 +3663,13 @@
         <v>628673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -3624,13 +3678,13 @@
         <v>1272334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3740,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3698,13 +3752,13 @@
         <v>41957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3713,13 +3767,13 @@
         <v>83197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3728,13 +3782,13 @@
         <v>125154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3803,13 @@
         <v>571606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>464</v>
@@ -3764,13 +3818,13 @@
         <v>533002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>974</v>
@@ -3779,13 +3833,13 @@
         <v>1104608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3853,13 +3907,13 @@
         <v>41599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3868,13 +3922,13 @@
         <v>91941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -3883,13 +3937,13 @@
         <v>133540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3958,13 @@
         <v>387830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -3919,13 +3973,13 @@
         <v>354804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>672</v>
@@ -3934,13 +3988,13 @@
         <v>742634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4008,13 +4062,13 @@
         <v>92411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -4023,13 +4077,13 @@
         <v>210629</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -4038,13 +4092,13 @@
         <v>303040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4113,13 @@
         <v>467226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>496</v>
@@ -4074,13 +4128,13 @@
         <v>531401</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -4089,13 +4143,13 @@
         <v>998627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4217,13 @@
         <v>242663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
@@ -4178,13 +4232,13 @@
         <v>520744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -4193,13 +4247,13 @@
         <v>763407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4268,13 @@
         <v>3182125</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2813</v>
@@ -4229,13 +4283,13 @@
         <v>3035565</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>5800</v>
@@ -4244,13 +4298,13 @@
         <v>6217690</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAC4B51-0243-4D0B-B1CA-E185D76DC8CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A38A1B-9456-4CCD-8285-5C212CDE3C10}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4452,13 +4506,13 @@
         <v>9792</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4467,13 +4521,13 @@
         <v>12295</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4482,10 +4536,10 @@
         <v>22087</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>273</v>
@@ -4506,10 +4560,10 @@
         <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4518,13 +4572,13 @@
         <v>383460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4533,13 +4587,13 @@
         <v>793131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4661,13 @@
         <v>26031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4622,13 +4676,13 @@
         <v>26195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4637,13 +4691,13 @@
         <v>52226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4712,13 @@
         <v>564465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -4673,13 +4727,13 @@
         <v>537349</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1095</v>
@@ -4688,13 +4742,13 @@
         <v>1101814</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4816,13 @@
         <v>31704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4777,13 +4831,13 @@
         <v>44699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4792,13 +4846,13 @@
         <v>76403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4867,13 @@
         <v>637393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4828,13 +4882,13 @@
         <v>616687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1229</v>
@@ -4843,13 +4897,13 @@
         <v>1254080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4959,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4917,13 +4971,13 @@
         <v>44521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4932,13 +4986,13 @@
         <v>67558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -4947,13 +5001,13 @@
         <v>112079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +5022,13 @@
         <v>601527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -4983,28 +5037,28 @@
         <v>581519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
       </c>
       <c r="N14" s="7">
-        <v>1183046</v>
+        <v>1183047</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5100,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5060,7 +5114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5072,13 +5126,13 @@
         <v>32685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -5087,13 +5141,13 @@
         <v>88483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -5102,13 +5156,13 @@
         <v>121169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5177,13 @@
         <v>445233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
@@ -5138,13 +5192,13 @@
         <v>408366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -5153,13 +5207,13 @@
         <v>853598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,7 +5269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5227,13 +5281,13 @@
         <v>61242</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -5242,13 +5296,13 @@
         <v>193029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
@@ -5257,13 +5311,13 @@
         <v>254271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5332,13 @@
         <v>530086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -5293,13 +5347,13 @@
         <v>584902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>1058</v>
@@ -5308,13 +5362,13 @@
         <v>1114988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5436,13 @@
         <v>205975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>386</v>
@@ -5397,13 +5451,13 @@
         <v>432259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -5412,13 +5466,13 @@
         <v>638234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5487,13 @@
         <v>3188375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>2952</v>
@@ -5448,13 +5502,13 @@
         <v>3112283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>5988</v>
@@ -5463,13 +5517,13 @@
         <v>6300658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF862FCA-BE9E-4E42-AE57-B034242EB10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064986D9-BAF8-4476-A98C-344831BD6218}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5564,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5671,13 +5725,13 @@
         <v>10635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5686,13 +5740,13 @@
         <v>29054</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5701,13 +5755,13 @@
         <v>39689</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5776,13 @@
         <v>367044</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5737,13 +5791,13 @@
         <v>325903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -5752,13 +5806,13 @@
         <v>692947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5880,13 @@
         <v>9887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5841,13 +5895,13 @@
         <v>32431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5856,13 +5910,13 @@
         <v>42319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5931,13 @@
         <v>418509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -5892,13 +5946,13 @@
         <v>466146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -5907,13 +5961,13 @@
         <v>884654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6035,13 @@
         <v>31920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -5996,13 +6050,13 @@
         <v>34018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -6011,13 +6065,13 @@
         <v>65937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6086,13 @@
         <v>525332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -6047,13 +6101,13 @@
         <v>549458</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>1313</v>
@@ -6062,13 +6116,13 @@
         <v>1074790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6136,13 +6190,13 @@
         <v>45852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -6151,13 +6205,13 @@
         <v>71674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -6166,13 +6220,13 @@
         <v>117526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6241,13 @@
         <v>678138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>1042</v>
@@ -6202,13 +6256,13 @@
         <v>674900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>1668</v>
@@ -6217,13 +6271,13 @@
         <v>1353038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6291,13 +6345,13 @@
         <v>45748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -6306,13 +6360,13 @@
         <v>79753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -6321,13 +6375,13 @@
         <v>125501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6396,13 @@
         <v>554409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
@@ -6357,13 +6411,13 @@
         <v>516965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>1489</v>
@@ -6372,13 +6426,13 @@
         <v>1071374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6446,13 +6500,13 @@
         <v>66041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>341</v>
@@ -6461,13 +6515,13 @@
         <v>195143</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -6476,13 +6530,13 @@
         <v>261185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,13 +6551,13 @@
         <v>630427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -6512,13 +6566,13 @@
         <v>829915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>2292</v>
@@ -6527,13 +6581,13 @@
         <v>1460341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6655,13 @@
         <v>210083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>657</v>
@@ -6616,13 +6670,13 @@
         <v>442073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>881</v>
@@ -6631,13 +6685,13 @@
         <v>652155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6706,13 @@
         <v>3173859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>4702</v>
@@ -6667,13 +6721,13 @@
         <v>3363287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>7852</v>
@@ -6682,13 +6736,13 @@
         <v>6537147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>96</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E56B07-229C-4B69-8099-2A5D0B46D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06995BD8-188C-461E-9D9C-4C223C71911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C855861-A167-462F-8DE7-4AF80171CE17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C85C2B32-AA37-4FD8-A4A9-C188704E82C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,100 +140,112 @@
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -242,1122 +254,1134 @@
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
     <t>90,4%</t>
   </si>
   <si>
@@ -1382,9 +1406,6 @@
     <t>10,11%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
     <t>11,38%</t>
   </si>
   <si>
@@ -1397,9 +1418,6 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
     <t>92,38%</t>
   </si>
   <si>
@@ -1409,9 +1427,6 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
     <t>84,28%</t>
   </si>
   <si>
@@ -1419,9 +1434,6 @@
   </si>
   <si>
     <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
   </si>
   <si>
     <t>91,08%</t>
@@ -1944,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CF3E1-3FBA-4ADD-8B4C-022F2E997FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677D9A1-2A6D-496D-8789-5F9463AC595E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2381,10 +2393,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2393,13 +2405,13 @@
         <v>46556</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -2408,13 +2420,13 @@
         <v>72977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2441,13 @@
         <v>612247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -2444,13 +2456,13 @@
         <v>643188</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1203</v>
@@ -2459,13 +2471,13 @@
         <v>1255435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2533,13 +2545,13 @@
         <v>32423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -2548,13 +2560,13 @@
         <v>58070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -2563,13 +2575,13 @@
         <v>90493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2596,13 @@
         <v>486724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -2599,13 +2611,13 @@
         <v>457572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>899</v>
@@ -2614,13 +2626,13 @@
         <v>944296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2688,13 +2700,13 @@
         <v>32190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -2703,13 +2715,13 @@
         <v>44571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2718,13 +2730,13 @@
         <v>76761</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2751,13 @@
         <v>354520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>351</v>
@@ -2754,13 +2766,13 @@
         <v>359415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>709</v>
@@ -2769,13 +2781,13 @@
         <v>713935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2855,13 @@
         <v>70266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -2858,13 +2870,13 @@
         <v>110924</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -2873,13 +2885,13 @@
         <v>181190</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2906,13 @@
         <v>432200</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>555</v>
@@ -2909,13 +2921,13 @@
         <v>565918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1004</v>
@@ -2924,13 +2936,13 @@
         <v>998118</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,16 +3007,16 @@
         <v>196</v>
       </c>
       <c r="D22" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>308</v>
@@ -3013,13 +3025,13 @@
         <v>318275</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>504</v>
@@ -3028,13 +3040,13 @@
         <v>516514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3061,13 @@
         <v>3078305</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2989</v>
@@ -3064,13 +3076,13 @@
         <v>3060923</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6007</v>
@@ -3079,13 +3091,13 @@
         <v>6139227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3109,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3141,7 +3153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5CC236-6BDA-4F32-B579-C24B20BAE856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E718F46F-CBC0-4CA3-AC85-14F5CA471298}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3299,13 @@
         <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3302,13 +3314,13 @@
         <v>19528</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3317,13 +3329,13 @@
         <v>28725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3350,13 @@
         <v>444949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3353,13 +3365,13 @@
         <v>410702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3368,13 +3380,13 @@
         <v>855651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>20235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3457,13 +3469,13 @@
         <v>33271</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3472,13 +3484,13 @@
         <v>53507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>666852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3508,13 +3520,13 @@
         <v>576984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1190</v>
@@ -3523,13 +3535,13 @@
         <v>1243835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3609,13 @@
         <v>37264</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3612,13 +3624,13 @@
         <v>82177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -3627,13 +3639,13 @@
         <v>119441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3660,13 @@
         <v>643662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3663,13 +3675,13 @@
         <v>628673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -3678,13 +3690,13 @@
         <v>1272334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3752,13 +3764,13 @@
         <v>41957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3767,13 +3779,13 @@
         <v>83197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3782,13 +3794,13 @@
         <v>125154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3815,13 @@
         <v>571606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>464</v>
@@ -3818,13 +3830,13 @@
         <v>533002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>974</v>
@@ -3833,13 +3845,13 @@
         <v>1104608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3907,13 +3919,13 @@
         <v>41599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3922,13 +3934,13 @@
         <v>91941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -3937,13 +3949,13 @@
         <v>133540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,10 +3970,10 @@
         <v>387830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>225</v>
@@ -4050,7 +4062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4217,13 +4229,13 @@
         <v>242663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
@@ -4232,13 +4244,13 @@
         <v>520744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -4247,13 +4259,13 @@
         <v>763407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4280,13 @@
         <v>3182125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2813</v>
@@ -4283,13 +4295,13 @@
         <v>3035565</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>5800</v>
@@ -4298,13 +4310,13 @@
         <v>6217690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A38A1B-9456-4CCD-8285-5C212CDE3C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0984F69A-C96A-43B5-9AB3-14A115427462}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +4518,13 @@
         <v>9792</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4521,13 +4533,13 @@
         <v>12295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4536,13 +4548,13 @@
         <v>22087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4569,13 @@
         <v>409671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4572,13 +4584,13 @@
         <v>383460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4587,13 +4599,13 @@
         <v>793131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4673,13 @@
         <v>26031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4676,13 +4688,13 @@
         <v>26195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4691,13 +4703,13 @@
         <v>52226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4724,13 @@
         <v>564465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -4727,13 +4739,13 @@
         <v>537349</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1095</v>
@@ -4742,13 +4754,13 @@
         <v>1101814</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4828,13 @@
         <v>31704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4831,10 +4843,10 @@
         <v>44699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>304</v>
@@ -4882,13 +4894,13 @@
         <v>616687</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>1229</v>
@@ -4897,13 +4909,13 @@
         <v>1254080</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4971,13 +4983,13 @@
         <v>44521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4986,13 +4998,13 @@
         <v>67558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5001,13 +5013,13 @@
         <v>112079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5034,13 @@
         <v>601527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -5037,28 +5049,28 @@
         <v>581519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
       </c>
       <c r="N14" s="7">
-        <v>1183047</v>
+        <v>1183046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,7 +5112,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5114,7 +5126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5126,13 +5138,13 @@
         <v>32685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -5141,13 +5153,13 @@
         <v>88483</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -5156,10 +5168,10 @@
         <v>121169</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>338</v>
@@ -5177,13 +5189,13 @@
         <v>445233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
@@ -5192,13 +5204,13 @@
         <v>408366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -5207,13 +5219,13 @@
         <v>853598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5281,13 +5293,13 @@
         <v>61242</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -5296,13 +5308,13 @@
         <v>193029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
@@ -5311,13 +5323,13 @@
         <v>254271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5344,13 @@
         <v>530086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -5347,13 +5359,13 @@
         <v>584902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>1058</v>
@@ -5362,13 +5374,13 @@
         <v>1114988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5448,13 @@
         <v>205975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>386</v>
@@ -5451,13 +5463,13 @@
         <v>432259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -5466,13 +5478,13 @@
         <v>638234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5499,13 @@
         <v>3188375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>2952</v>
@@ -5502,13 +5514,13 @@
         <v>3112283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>5988</v>
@@ -5517,13 +5529,13 @@
         <v>6300658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064986D9-BAF8-4476-A98C-344831BD6218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5490C7-A427-4B3F-B230-C7D1AD3BED1F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5737,13 @@
         <v>10635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5740,13 +5752,13 @@
         <v>29054</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5755,13 +5767,13 @@
         <v>39689</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5788,13 @@
         <v>367044</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5791,13 +5803,13 @@
         <v>325903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -5806,13 +5818,13 @@
         <v>692947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5892,13 @@
         <v>9887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5895,13 +5907,13 @@
         <v>32431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5910,13 +5922,13 @@
         <v>42319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5943,13 @@
         <v>418509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -5946,13 +5958,13 @@
         <v>466146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -5961,13 +5973,13 @@
         <v>884654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6047,13 @@
         <v>31920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -6050,13 +6062,13 @@
         <v>34018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -6065,13 +6077,13 @@
         <v>65937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6098,13 @@
         <v>525332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -6101,13 +6113,13 @@
         <v>549458</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>1313</v>
@@ -6116,13 +6128,13 @@
         <v>1074790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6202,13 @@
         <v>45852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -6205,13 +6217,13 @@
         <v>71674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -6220,13 +6232,13 @@
         <v>117526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6253,13 @@
         <v>678138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>1042</v>
@@ -6256,13 +6268,13 @@
         <v>674900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>1668</v>
@@ -6271,13 +6283,13 @@
         <v>1353038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6345,13 +6357,13 @@
         <v>45748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -6360,13 +6372,13 @@
         <v>79753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -6375,13 +6387,13 @@
         <v>125501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6408,13 @@
         <v>554409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
@@ -6411,13 +6423,13 @@
         <v>516965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>1489</v>
@@ -6426,13 +6438,13 @@
         <v>1071374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6512,13 @@
         <v>66041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>341</v>
@@ -6515,13 +6527,13 @@
         <v>195143</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -6530,13 +6542,13 @@
         <v>261185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6563,13 @@
         <v>630427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -6566,13 +6578,13 @@
         <v>829915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>2292</v>
@@ -6581,13 +6593,13 @@
         <v>1460341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6667,13 @@
         <v>210083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>657</v>
@@ -6670,13 +6682,13 @@
         <v>442073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>881</v>
@@ -6685,13 +6697,13 @@
         <v>652155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6718,13 @@
         <v>3173859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4702</v>
@@ -6721,13 +6733,13 @@
         <v>3363287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>7852</v>
@@ -6736,13 +6748,13 @@
         <v>6537147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06995BD8-188C-461E-9D9C-4C223C71911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{048663F8-62B3-4EF1-A2B8-407844ABA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C85C2B32-AA37-4FD8-A4A9-C188704E82C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06F4AEA4-9094-4F8E-8DBD-C7A4F0D312C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,25 +71,25 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,65%</t>
@@ -98,7 +98,7 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>95,98%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -140,1411 +140,1345 @@
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>5,35%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>94,65%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>90,18%</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677D9A1-2A6D-496D-8789-5F9463AC595E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540CAAB-06C0-457A-B337-12FFC04A3238}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2575,13 +2509,13 @@
         <v>90493</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2530,13 @@
         <v>486724</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -2611,13 +2545,13 @@
         <v>457572</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>899</v>
@@ -2626,13 +2560,13 @@
         <v>944296</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2634,13 @@
         <v>32190</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -2715,13 +2649,13 @@
         <v>44571</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2730,13 +2664,13 @@
         <v>76761</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2685,13 @@
         <v>354520</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>351</v>
@@ -2766,13 +2700,13 @@
         <v>359415</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>709</v>
@@ -2781,13 +2715,13 @@
         <v>713935</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2777,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2789,13 @@
         <v>70266</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -2870,13 +2804,13 @@
         <v>110924</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -2885,13 +2819,13 @@
         <v>181190</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2840,13 @@
         <v>432200</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>555</v>
@@ -2921,13 +2855,13 @@
         <v>565918</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1004</v>
@@ -2936,13 +2870,13 @@
         <v>998118</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,16 +2941,16 @@
         <v>196</v>
       </c>
       <c r="D22" s="7">
-        <v>198238</v>
+        <v>198239</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>308</v>
@@ -3025,28 +2959,28 @@
         <v>318275</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>504</v>
       </c>
       <c r="N22" s="7">
-        <v>516514</v>
+        <v>516513</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +2995,13 @@
         <v>3078305</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2989</v>
@@ -3076,13 +3010,13 @@
         <v>3060923</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6007</v>
@@ -3091,13 +3025,13 @@
         <v>6139227</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3043,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3139,7 +3073,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3153,7 +3087,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E718F46F-CBC0-4CA3-AC85-14F5CA471298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38AA6EA-4C99-46AE-A167-A2CE6B8AA40F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3233,13 @@
         <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3314,13 +3248,13 @@
         <v>19528</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3329,13 +3263,13 @@
         <v>28725</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3284,13 @@
         <v>444949</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3365,13 +3299,13 @@
         <v>410702</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3380,13 +3314,13 @@
         <v>855651</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3388,13 @@
         <v>20235</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3469,13 +3403,13 @@
         <v>33271</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3484,13 +3418,13 @@
         <v>53507</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3439,13 @@
         <v>666852</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3520,13 +3454,13 @@
         <v>576984</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1190</v>
@@ -3535,13 +3469,13 @@
         <v>1243835</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3543,13 @@
         <v>37264</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3624,13 +3558,13 @@
         <v>82177</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -3639,13 +3573,13 @@
         <v>119441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3594,13 @@
         <v>643662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3675,13 +3609,13 @@
         <v>628673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -3690,13 +3624,13 @@
         <v>1272334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3698,13 @@
         <v>41957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3779,13 +3713,13 @@
         <v>83197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3794,13 +3728,13 @@
         <v>125154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3749,13 @@
         <v>571606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>464</v>
@@ -3830,13 +3764,13 @@
         <v>533002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>974</v>
@@ -3845,13 +3779,13 @@
         <v>1104608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +3841,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3853,13 @@
         <v>41599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3934,13 +3868,13 @@
         <v>91941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -3949,13 +3883,13 @@
         <v>133540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3904,13 @@
         <v>387830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -3985,13 +3919,13 @@
         <v>354804</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>672</v>
@@ -4000,13 +3934,13 @@
         <v>742634</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +3996,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4008,13 @@
         <v>92411</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -4089,13 +4023,13 @@
         <v>210629</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -4104,13 +4038,13 @@
         <v>303040</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4059,13 @@
         <v>467226</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>496</v>
@@ -4140,13 +4074,13 @@
         <v>531401</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -4155,13 +4089,13 @@
         <v>998627</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4163,13 @@
         <v>242663</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
@@ -4244,13 +4178,13 @@
         <v>520744</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -4259,13 +4193,13 @@
         <v>763407</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4214,13 @@
         <v>3182125</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2813</v>
@@ -4295,13 +4229,13 @@
         <v>3035565</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>5800</v>
@@ -4310,13 +4244,13 @@
         <v>6217690</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4306,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0984F69A-C96A-43B5-9AB3-14A115427462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA5AD6-417B-427E-A49F-FAB2B8902218}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4452,13 @@
         <v>9792</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4533,13 +4467,13 @@
         <v>12295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4548,13 +4482,13 @@
         <v>22087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4503,13 @@
         <v>409671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4584,13 +4518,13 @@
         <v>383460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4599,13 +4533,13 @@
         <v>793131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4607,13 @@
         <v>26031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4688,13 +4622,13 @@
         <v>26195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4703,13 +4637,13 @@
         <v>52226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4658,13 @@
         <v>564465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -4739,13 +4673,13 @@
         <v>537349</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>1095</v>
@@ -4754,13 +4688,13 @@
         <v>1101814</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4762,13 @@
         <v>31704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4843,13 +4777,13 @@
         <v>44699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4858,13 +4792,13 @@
         <v>76403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4813,13 @@
         <v>637393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4894,13 +4828,13 @@
         <v>616687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>1229</v>
@@ -4909,13 +4843,13 @@
         <v>1254080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4917,13 @@
         <v>44521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4998,13 +4932,13 @@
         <v>67558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5013,13 +4947,13 @@
         <v>112079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +4968,13 @@
         <v>601527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -5049,13 +4983,13 @@
         <v>581519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
@@ -5064,13 +4998,13 @@
         <v>1183046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5072,13 @@
         <v>32685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -5153,13 +5087,13 @@
         <v>88483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -5168,13 +5102,13 @@
         <v>121169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5123,13 @@
         <v>445233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
@@ -5204,13 +5138,13 @@
         <v>408366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -5219,13 +5153,13 @@
         <v>853598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5215,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5227,13 @@
         <v>61242</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -5308,13 +5242,13 @@
         <v>193029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
@@ -5323,13 +5257,13 @@
         <v>254271</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5278,13 @@
         <v>530086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -5359,13 +5293,13 @@
         <v>584902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>1058</v>
@@ -5374,13 +5308,13 @@
         <v>1114988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5382,13 @@
         <v>205975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>386</v>
@@ -5463,13 +5397,13 @@
         <v>432259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -5478,13 +5412,13 @@
         <v>638234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5433,13 @@
         <v>3188375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7">
         <v>2952</v>
@@ -5514,13 +5448,13 @@
         <v>3112283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M23" s="7">
         <v>5988</v>
@@ -5529,13 +5463,13 @@
         <v>6300658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5525,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5490C7-A427-4B3F-B230-C7D1AD3BED1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BDE89D-8FC7-497C-A92C-1E16E4283A86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5671,13 @@
         <v>10635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -5752,13 +5686,13 @@
         <v>29054</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -5767,13 +5701,13 @@
         <v>39689</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5722,13 @@
         <v>367044</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5803,13 +5737,13 @@
         <v>325903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -5818,13 +5752,13 @@
         <v>692947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5826,13 @@
         <v>9887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5907,13 +5841,13 @@
         <v>32431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5922,13 +5856,13 @@
         <v>42319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5877,13 @@
         <v>418509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -5958,13 +5892,13 @@
         <v>466146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
@@ -5973,13 +5907,13 @@
         <v>884654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +5981,13 @@
         <v>31920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -6062,13 +5996,13 @@
         <v>34018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -6077,13 +6011,13 @@
         <v>65937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6032,13 @@
         <v>525332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -6113,13 +6047,13 @@
         <v>549458</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>1313</v>
@@ -6128,13 +6062,13 @@
         <v>1074790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6136,13 @@
         <v>45852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -6217,13 +6151,13 @@
         <v>71674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -6232,13 +6166,13 @@
         <v>117526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6187,13 @@
         <v>678138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="H14" s="7">
         <v>1042</v>
@@ -6268,13 +6202,13 @@
         <v>674900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>1668</v>
@@ -6283,13 +6217,13 @@
         <v>1353038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6279,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6291,13 @@
         <v>45748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -6372,13 +6306,13 @@
         <v>79753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -6387,13 +6321,13 @@
         <v>125501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6342,13 @@
         <v>554409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
@@ -6423,13 +6357,13 @@
         <v>516965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>1489</v>
@@ -6438,13 +6372,13 @@
         <v>1071374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6434,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6446,13 @@
         <v>66041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="H19" s="7">
         <v>341</v>
@@ -6527,13 +6461,13 @@
         <v>195143</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>439</v>
@@ -6542,13 +6476,13 @@
         <v>261185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6497,13 @@
         <v>630427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -6578,13 +6512,13 @@
         <v>829915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="M20" s="7">
         <v>2292</v>
@@ -6593,13 +6527,13 @@
         <v>1460341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6601,13 @@
         <v>210083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>657</v>
@@ -6682,13 +6616,13 @@
         <v>442073</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>881</v>
@@ -6697,13 +6631,13 @@
         <v>652155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6652,13 @@
         <v>3173859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>322</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>4702</v>
@@ -6733,13 +6667,13 @@
         <v>3363287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>346</v>
       </c>
       <c r="M23" s="7">
         <v>7852</v>
@@ -6748,13 +6682,13 @@
         <v>6537147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6744,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{048663F8-62B3-4EF1-A2B8-407844ABA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A870149B-2D96-43E8-B0F2-D0E1700A2A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06F4AEA4-9094-4F8E-8DBD-C7A4F0D312C8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{14BA97FA-ACC6-4586-8A96-DF0A7F424EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="549">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,28%</t>
@@ -191,7 +191,7 @@
     <t>96,07%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>4,14%</t>
@@ -248,7 +248,7 @@
     <t>95,81%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>6,25%</t>
@@ -299,7 +299,7 @@
     <t>92,85%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>8,32%</t>
@@ -356,61 +356,118 @@
     <t>92,22%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>6,05%</t>
@@ -644,9 +701,6 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
     <t>12,26%</t>
   </si>
   <si>
@@ -674,9 +728,6 @@
     <t>87,74%</t>
   </si>
   <si>
-    <t>91,44%</t>
-  </si>
-  <si>
     <t>9,69%</t>
   </si>
   <si>
@@ -731,58 +782,112 @@
     <t>86,94%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>7,09%</t>
@@ -1052,58 +1157,112 @@
     <t>89,6%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>6,07%</t>
@@ -1166,319 +1325,367 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +2097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540CAAB-06C0-457A-B337-12FFC04A3238}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242E13CF-3804-45F3-AC3E-E6930713A5D6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2783,10 +2990,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>70266</v>
+        <v>35073</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2798,10 +3005,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>110924</v>
+        <v>48607</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2813,10 +3020,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="N19" s="7">
-        <v>181190</v>
+        <v>83680</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2834,10 +3041,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>449</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>432200</v>
+        <v>257510</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2849,10 +3056,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>555</v>
+        <v>319</v>
       </c>
       <c r="I20" s="7">
-        <v>565918</v>
+        <v>294327</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2864,10 +3071,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1004</v>
+        <v>585</v>
       </c>
       <c r="N20" s="7">
-        <v>998118</v>
+        <v>551837</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2885,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2900,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2915,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2932,55 +3139,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>198239</v>
+        <v>35193</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="I22" s="7">
-        <v>318275</v>
+        <v>62317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>504</v>
+        <v>91</v>
       </c>
       <c r="N22" s="7">
-        <v>516513</v>
+        <v>97510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,49 +3196,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3018</v>
+        <v>183</v>
       </c>
       <c r="D23" s="7">
-        <v>3078305</v>
+        <v>174690</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2989</v>
+        <v>236</v>
       </c>
       <c r="I23" s="7">
-        <v>3060923</v>
+        <v>271591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6007</v>
+        <v>419</v>
       </c>
       <c r="N23" s="7">
-        <v>6139227</v>
+        <v>446281</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,63 +3247,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>196</v>
+      </c>
+      <c r="D25" s="7">
+        <v>198238</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>308</v>
+      </c>
+      <c r="I25" s="7">
+        <v>318275</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>504</v>
+      </c>
+      <c r="N25" s="7">
+        <v>516514</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3018</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3078305</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2989</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3060922</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6007</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6139227</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3109,8 +3472,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38AA6EA-4C99-46AE-A167-A2CE6B8AA40F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873D90C-1797-4347-94EA-5574CD88EB13}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3126,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3233,13 +3596,13 @@
         <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3248,13 +3611,13 @@
         <v>19528</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3263,13 +3626,13 @@
         <v>28725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3647,13 @@
         <v>444949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3299,13 +3662,13 @@
         <v>410702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3314,13 +3677,13 @@
         <v>855651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3751,13 @@
         <v>20235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3406,10 +3769,10 @@
         <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3418,13 +3781,13 @@
         <v>53507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3802,13 @@
         <v>666852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3457,10 +3820,10 @@
         <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1190</v>
@@ -3469,13 +3832,13 @@
         <v>1243835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3906,13 @@
         <v>37264</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3558,13 +3921,13 @@
         <v>82177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -3576,10 +3939,10 @@
         <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3957,13 @@
         <v>643662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -3609,13 +3972,13 @@
         <v>628673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -3627,10 +3990,10 @@
         <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +4061,13 @@
         <v>41957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3713,13 +4076,13 @@
         <v>83197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -3728,13 +4091,13 @@
         <v>125154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +4112,13 @@
         <v>571606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>464</v>
@@ -3764,13 +4127,13 @@
         <v>533002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>974</v>
@@ -3779,13 +4142,13 @@
         <v>1104608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +4216,13 @@
         <v>41599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -3868,13 +4231,13 @@
         <v>91941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -3883,13 +4246,13 @@
         <v>133540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +4267,13 @@
         <v>387830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -3919,13 +4282,13 @@
         <v>354804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>672</v>
@@ -3934,13 +4297,13 @@
         <v>742634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +4365,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>92411</v>
+        <v>37403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7">
-        <v>210629</v>
+        <v>81240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
-        <v>303040</v>
+        <v>118643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,49 +4416,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>424</v>
+        <v>249</v>
       </c>
       <c r="D20" s="7">
-        <v>467226</v>
+        <v>272383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>496</v>
+        <v>262</v>
       </c>
       <c r="I20" s="7">
-        <v>531401</v>
+        <v>271811</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>920</v>
+        <v>511</v>
       </c>
       <c r="N20" s="7">
-        <v>998627</v>
+        <v>544194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,10 +4467,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4119,10 +4482,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>742030</v>
+        <v>353051</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4134,10 +4497,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301667</v>
+        <v>662837</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4151,55 +4514,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7">
-        <v>242663</v>
+        <v>55008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>483</v>
+        <v>116</v>
       </c>
       <c r="I22" s="7">
-        <v>520744</v>
+        <v>129389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>703</v>
+        <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>763407</v>
+        <v>184397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,49 +4571,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2987</v>
+        <v>175</v>
       </c>
       <c r="D23" s="7">
-        <v>3182125</v>
+        <v>194843</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>2813</v>
+        <v>234</v>
       </c>
       <c r="I23" s="7">
-        <v>3035565</v>
+        <v>259590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>5800</v>
+        <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>6217690</v>
+        <v>454433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,63 +4622,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>220</v>
+      </c>
+      <c r="D25" s="7">
+        <v>242663</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>483</v>
+      </c>
+      <c r="I25" s="7">
+        <v>520744</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>703</v>
+      </c>
+      <c r="N25" s="7">
+        <v>763407</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2987</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3182125</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2813</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3035565</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5800</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6217690</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3207</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3424788</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3556309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6503</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981097</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4328,8 +4847,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA5AD6-417B-427E-A49F-FAB2B8902218}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C0B99C-3E4E-49ED-BAB1-8D8482A8990F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4345,7 +4864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4452,10 +4971,10 @@
         <v>9792</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>58</v>
@@ -4467,13 +4986,13 @@
         <v>12295</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4482,13 +5001,13 @@
         <v>22087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +5022,13 @@
         <v>409671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4518,13 +5037,13 @@
         <v>383460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4533,10 +5052,10 @@
         <v>793131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>29</v>
@@ -4610,10 +5129,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4622,13 +5141,13 @@
         <v>26195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4640,10 +5159,10 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,10 +5180,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -4673,13 +5192,13 @@
         <v>537349</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>1095</v>
@@ -4691,10 +5210,10 @@
         <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +5281,13 @@
         <v>31704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4777,13 +5296,13 @@
         <v>44699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4792,13 +5311,13 @@
         <v>76403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +5332,13 @@
         <v>637393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -4828,13 +5347,13 @@
         <v>616687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>1229</v>
@@ -4843,13 +5362,13 @@
         <v>1254080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +5436,13 @@
         <v>44521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4932,13 +5451,13 @@
         <v>67558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -4947,13 +5466,13 @@
         <v>112079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,10 +5487,10 @@
         <v>601527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>47</v>
@@ -4983,13 +5502,13 @@
         <v>581519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
@@ -4998,13 +5517,13 @@
         <v>1183046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5591,13 @@
         <v>32685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -5087,13 +5606,13 @@
         <v>88483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -5102,13 +5621,13 @@
         <v>121169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5642,13 @@
         <v>445233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
@@ -5138,13 +5657,13 @@
         <v>408366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -5153,13 +5672,13 @@
         <v>853598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,49 +5740,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>61242</v>
+        <v>28761</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7">
-        <v>193029</v>
+        <v>82980</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>254271</v>
+        <v>111742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,49 +5791,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>564</v>
+        <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>530086</v>
+        <v>305569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="I20" s="7">
-        <v>584902</v>
+        <v>294782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>1058</v>
+        <v>574</v>
       </c>
       <c r="N20" s="7">
-        <v>1114988</v>
+        <v>600350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,10 +5842,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5338,10 +5857,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5353,10 +5872,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5370,55 +5889,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>205975</v>
+        <v>32481</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>432259</v>
+        <v>110049</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
-        <v>581</v>
+        <v>119</v>
       </c>
       <c r="N22" s="7">
-        <v>638234</v>
+        <v>142530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,49 +5946,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3036</v>
+        <v>266</v>
       </c>
       <c r="D23" s="7">
-        <v>3188375</v>
+        <v>224517</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
-        <v>2952</v>
+        <v>218</v>
       </c>
       <c r="I23" s="7">
-        <v>3112283</v>
+        <v>290120</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
-        <v>5988</v>
+        <v>484</v>
       </c>
       <c r="N23" s="7">
-        <v>6300658</v>
+        <v>514637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,63 +5997,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>195</v>
+      </c>
+      <c r="D25" s="7">
+        <v>205975</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H25" s="7">
+        <v>386</v>
+      </c>
+      <c r="I25" s="7">
+        <v>432259</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M25" s="7">
+        <v>581</v>
+      </c>
+      <c r="N25" s="7">
+        <v>638234</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3036</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3188375</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2952</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3112283</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5988</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6300658</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5547,8 +6222,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BDE89D-8FC7-497C-A92C-1E16E4283A86}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A451A20B-8228-4C4C-BFC9-D1B7216AD249}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5564,7 +6239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5668,46 +6343,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>10635</v>
+        <v>11275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>29054</v>
+        <v>26119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>39689</v>
+        <v>37394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,46 +6394,46 @@
         <v>168</v>
       </c>
       <c r="D5" s="7">
-        <v>367044</v>
+        <v>388712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>325903</v>
+        <v>287081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
       </c>
       <c r="N5" s="7">
-        <v>692947</v>
+        <v>675793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +6445,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5785,7 +6460,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5800,7 +6475,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5823,46 +6498,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>9887</v>
+        <v>9920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>32431</v>
+        <v>28934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>42319</v>
+        <v>38854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,46 +6549,46 @@
         <v>295</v>
       </c>
       <c r="D8" s="7">
-        <v>418509</v>
+        <v>413627</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
       </c>
       <c r="I8" s="7">
-        <v>466146</v>
+        <v>482570</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>730</v>
       </c>
       <c r="N8" s="7">
-        <v>884654</v>
+        <v>896197</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>455</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +6600,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5940,7 +6615,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5955,7 +6630,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5978,46 +6653,46 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>31920</v>
+        <v>30938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>34018</v>
+        <v>31477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>65937</v>
+        <v>62415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>463</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,46 +6704,46 @@
         <v>518</v>
       </c>
       <c r="D11" s="7">
-        <v>525332</v>
+        <v>505400</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
       </c>
       <c r="I11" s="7">
-        <v>549458</v>
+        <v>510991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="M11" s="7">
         <v>1313</v>
       </c>
       <c r="N11" s="7">
-        <v>1074790</v>
+        <v>1016391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>421</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,7 +6755,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6095,7 +6770,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6110,7 +6785,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6133,46 +6808,46 @@
         <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>45852</v>
+        <v>43579</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>71674</v>
+        <v>64362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>474</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
       </c>
       <c r="N13" s="7">
-        <v>117526</v>
+        <v>107940</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,46 +6859,46 @@
         <v>626</v>
       </c>
       <c r="D14" s="7">
-        <v>678138</v>
+        <v>844207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>1042</v>
       </c>
       <c r="I14" s="7">
-        <v>674900</v>
+        <v>647874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>1668</v>
       </c>
       <c r="N14" s="7">
-        <v>1353038</v>
+        <v>1492083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6910,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6250,7 +6925,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746574</v>
+        <v>712236</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6265,7 +6940,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470564</v>
+        <v>1600023</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6288,46 +6963,46 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>45748</v>
+        <v>42209</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>79753</v>
+        <v>72338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
       </c>
       <c r="N16" s="7">
-        <v>125501</v>
+        <v>114547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,46 +7014,46 @@
         <v>615</v>
       </c>
       <c r="D17" s="7">
-        <v>554409</v>
+        <v>519025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>516965</v>
+        <v>475245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
         <v>1489</v>
       </c>
       <c r="N17" s="7">
-        <v>1071374</v>
+        <v>994270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +7065,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6405,7 +7080,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596718</v>
+        <v>547583</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6420,7 +7095,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1196875</v>
+        <v>1108817</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6440,49 +7115,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>66041</v>
+        <v>28507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="H19" s="7">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="I19" s="7">
-        <v>195143</v>
+        <v>60899</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>439</v>
+        <v>164</v>
       </c>
       <c r="N19" s="7">
-        <v>261185</v>
+        <v>89405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,49 +7166,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>928</v>
+        <v>526</v>
       </c>
       <c r="D20" s="7">
-        <v>630427</v>
+        <v>339088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="H20" s="7">
-        <v>1364</v>
+        <v>706</v>
       </c>
       <c r="I20" s="7">
-        <v>829915</v>
+        <v>547469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
-        <v>2292</v>
+        <v>1232</v>
       </c>
       <c r="N20" s="7">
-        <v>1460341</v>
+        <v>886558</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,10 +7217,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696468</v>
+        <v>367595</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6557,10 +7232,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025058</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6572,10 +7247,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1721526</v>
+        <v>975963</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6589,55 +7264,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7">
-        <v>210083</v>
+        <v>32563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>519</v>
       </c>
       <c r="H22" s="7">
-        <v>657</v>
+        <v>220</v>
       </c>
       <c r="I22" s="7">
-        <v>442073</v>
+        <v>110872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>521</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
-        <v>881</v>
+        <v>275</v>
       </c>
       <c r="N22" s="7">
-        <v>652155</v>
+        <v>143435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>524</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,49 +7321,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3150</v>
+        <v>402</v>
       </c>
       <c r="D23" s="7">
-        <v>3173859</v>
+        <v>249560</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>527</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="H23" s="7">
-        <v>4702</v>
+        <v>658</v>
       </c>
       <c r="I23" s="7">
-        <v>3363287</v>
+        <v>313567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>531</v>
       </c>
       <c r="M23" s="7">
-        <v>7852</v>
+        <v>1060</v>
       </c>
       <c r="N23" s="7">
-        <v>6537147</v>
+        <v>563127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>96</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,63 +7372,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282123</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424439</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706562</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>224</v>
+      </c>
+      <c r="D25" s="7">
+        <v>198990</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H25" s="7">
+        <v>657</v>
+      </c>
+      <c r="I25" s="7">
+        <v>395001</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M25" s="7">
+        <v>881</v>
+      </c>
+      <c r="N25" s="7">
+        <v>593991</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3150</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3259621</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4702</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3264798</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7852</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6524418</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383942</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458611</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3805360</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659799</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7189302</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7118409</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
